--- a/public/dashboard/inventorySample.xlsx
+++ b/public/dashboard/inventorySample.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">2B-Type5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdfdsf</t>
   </si>
 </sst>
 </file>
@@ -61,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +86,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,13 +161,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.8"/>
@@ -217,6 +222,11 @@
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/dashboard/inventorySample.xlsx
+++ b/public/dashboard/inventorySample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -43,13 +43,16 @@
     <t xml:space="preserve">Unit Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Townhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B-Type5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdfdsf</t>
+    <t xml:space="preserve">Apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studio12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa</t>
   </si>
 </sst>
 </file>
@@ -59,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,7 +89,11 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,13 +172,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.8"/>
@@ -208,39 +219,83 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>120000</v>
+        <v>42342355</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>9</v>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5553453</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>55432432</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B6" type="list">
       <formula1>"Apartment,Townhouse,Villa,Office,Hotel Apartment,Duplex,Business Center,Land,Labor Camp,Staff Accommodation,Coworking Space,Showroom,Entire Building,Compound,Full Floor,Half Floor,Shop,Land Residential"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:E2" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2" type="whole">
-      <formula1>0</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
+      <formula1>"Studio,1,2,3,4,5,6,7,8,9,10,11,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
